--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
-    <t>应急预案演练记录导入模板</t>
+    <t>应急预案启动记录导入模板</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应急预案演练记录导入模板</t>
+      <t>应急预案启动记录导入模板</t>
     </r>
     <r>
       <rPr>
@@ -35,74 +29,10 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写须知：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.请勿增加、删除、或修改表格中的字段顺序、字段名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.请勿删除表格中填充颜色的字段；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+3.请勿删除表格中填充颜色的字段；
 </t>
     </r>
     <r>
@@ -121,40 +51,8 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预案类型:综合应急预案/专项应急预案/现场处置方案；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应急队伍名称：可输入多个队伍，用分号“:”分隔；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+预案类型:综合应急预案/专项应急预案/现场处置方案；
+应急队伍名称：可输入多个队伍，用分号“:”分隔；
 </t>
     </r>
   </si>
@@ -286,6 +184,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -442,12 +346,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -944,10 +842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,34 +854,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,94 +890,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1000,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1117,7 +1015,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1126,7 +1024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1141,7 +1039,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1168,16 +1066,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1529,7 +1427,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="24360" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应急预案启动记录导入模板</t>
     </r>
     <r>
@@ -988,121 +994,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,7 +1433,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
@@ -20,12 +20,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>应急预案启动记录导入模板</t>
     </r>
     <r>
@@ -57,8 +51,12 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-预案类型:综合应急预案/专项应急预案/现场处置方案；
+事件类型:事件分类1/事件分类2；
+事件性质：运营事件/非运营事件；
+启动日期：格式xxxx-xx-xx；
+参与部门：需填系统中存在的部门；
 应急队伍名称：可输入多个队伍，用分号“:”分隔；
+应急物资编号：需填系统中存在的物资
 </t>
     </r>
   </si>
@@ -1433,7 +1431,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecord.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24360" windowHeight="11160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="应急预案启动记录导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应急预案启动记录导入模板</t>
     </r>
     <r>
@@ -1431,7 +1437,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
